--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -137,19 +137,19 @@
     <t>${trip.spentFuel}</t>
   </si>
   <si>
-    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
-  </si>
-  <si>
-    <t>${new("org.joda.time.DateTime", trip.startTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
-  </si>
-  <si>
-    <t>${new("org.joda.time.DateTime", trip.endTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
-  </si>
-  <si>
     <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
   </si>
   <si>
     <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.startTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.endTime, locale, timezone)}</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
@@ -970,16 +970,16 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>16</v>
